--- a/tfidf.xlsx
+++ b/tfidf.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1362888962030411</v>
+        <v>0.1028274446725845</v>
       </c>
       <c r="E2" t="n">
-        <v>558</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2853490114212036</v>
+        <v>0.3223211765289307</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622762858867645</v>
+        <v>0.3250167667865753</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1807444989681244</v>
+        <v>0.1531009078025818</v>
       </c>
       <c r="E5" t="n">
-        <v>200</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2814312875270844</v>
+        <v>0.3065623641014099</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2651321291923523</v>
+        <v>0.2893450558185577</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.461584746837616</v>
+        <v>0.4267906546592712</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2553292512893677</v>
+        <v>0.2752639055252075</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2553292512893677</v>
+        <v>0.2752639055252075</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3106945157051086</v>
+        <v>0.2952048480510712</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1969505548477173</v>
+        <v>0.2126365303993225</v>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3558474481105804</v>
+        <v>0.2980096936225891</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2107775658369064</v>
+        <v>0.2617144882678986</v>
       </c>
       <c r="E14" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3583624064922333</v>
+        <v>0.277679055929184</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6560395359992981</v>
+        <v>0.555859386920929</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>0.102776974439621</v>
+        <v>0.1139495298266411</v>
       </c>
       <c r="E17" t="n">
-        <v>1082</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2052280604839325</v>
+        <v>0.1838667988777161</v>
       </c>
       <c r="E18" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2052280604839325</v>
+        <v>0.1838667988777161</v>
       </c>
       <c r="E19" t="n">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2486043572425842</v>
+        <v>0.2079389840364456</v>
       </c>
       <c r="E20" t="n">
-        <v>274</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1951046735048294</v>
+        <v>0.123339980840683</v>
       </c>
       <c r="E21" t="n">
-        <v>711</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1246242001652718</v>
+        <v>0.1151318252086639</v>
       </c>
       <c r="E22" t="n">
-        <v>1779</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1997285336256027</v>
+        <v>0.1875800341367722</v>
       </c>
       <c r="E23" t="n">
-        <v>669</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1408228427171707</v>
+        <v>0.1389977633953094</v>
       </c>
       <c r="E24" t="n">
-        <v>1461</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04687624052166939</v>
+        <v>0.05366121977567673</v>
       </c>
       <c r="E25" t="n">
-        <v>9035</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1842140406370163</v>
+        <v>0.1791399717330933</v>
       </c>
       <c r="E26" t="n">
-        <v>840</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3578221797943115</v>
+        <v>0.2935076951980591</v>
       </c>
       <c r="E27" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08124776929616928</v>
+        <v>0.1012450754642487</v>
       </c>
       <c r="E28" t="n">
-        <v>3593</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1232382133603096</v>
+        <v>0.1260241270065308</v>
       </c>
       <c r="E29" t="n">
-        <v>1815</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1673262715339661</v>
+        <v>0.1156697496771812</v>
       </c>
       <c r="E30" t="n">
-        <v>1063</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1483795642852783</v>
+        <v>0.1404039710760117</v>
       </c>
       <c r="E31" t="n">
-        <v>1328</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07391618192195892</v>
+        <v>0.08046399801969528</v>
       </c>
       <c r="E32" t="n">
-        <v>4151</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132146880030632</v>
+        <v>0.1153562888503075</v>
       </c>
       <c r="E33" t="n">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1061707735061646</v>
+        <v>0.1074445769190788</v>
       </c>
       <c r="E34" t="n">
-        <v>2326</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2756001949310303</v>
+        <v>0.2341239154338837</v>
       </c>
       <c r="E35" t="n">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5482423305511475</v>
+        <v>0.4716383516788483</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1149989366531372</v>
+        <v>0.07737744599580765</v>
       </c>
       <c r="E37" t="n">
-        <v>2037</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.278451532125473</v>
+        <v>0.2593827247619629</v>
       </c>
       <c r="E38" t="n">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3467873930931091</v>
+        <v>0.3977139890193939</v>
       </c>
       <c r="E39" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3223071098327637</v>
+        <v>0.3864087760448456</v>
       </c>
       <c r="E40" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4527411460876465</v>
+        <v>0.3353444635868073</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1018797308206558</v>
+        <v>0.09627789258956909</v>
       </c>
       <c r="E42" t="n">
-        <v>2490</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05690339207649231</v>
+        <v>0.05305135995149612</v>
       </c>
       <c r="E43" t="n">
-        <v>6511</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3033922612667084</v>
+        <v>0.2757706940174103</v>
       </c>
       <c r="E44" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2293704599142075</v>
+        <v>0.2245438247919083</v>
       </c>
       <c r="E45" t="n">
-        <v>406</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2539989054203033</v>
+        <v>0.2342783361673355</v>
       </c>
       <c r="E46" t="n">
-        <v>244</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2306448966264725</v>
+        <v>0.2065957188606262</v>
       </c>
       <c r="E47" t="n">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2487818002700806</v>
+        <v>0.2723526954650879</v>
       </c>
       <c r="E48" t="n">
-        <v>273</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2998278737068176</v>
+        <v>0.2426978498697281</v>
       </c>
       <c r="E49" t="n">
-        <v>99</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4136927723884583</v>
+        <v>0.3256734311580658</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3859434127807617</v>
+        <v>0.3603964447975159</v>
       </c>
       <c r="E51" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1976837813854218</v>
+        <v>0.2300537675619125</v>
       </c>
       <c r="E52" t="n">
-        <v>691</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>0.113796092569828</v>
+        <v>0.09188225865364075</v>
       </c>
       <c r="E53" t="n">
-        <v>2076</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3327859938144684</v>
+        <v>0.3244711756706238</v>
       </c>
       <c r="E54" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1876043677330017</v>
+        <v>0.1735648512840271</v>
       </c>
       <c r="E55" t="n">
-        <v>787</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2240473628044128</v>
+        <v>0.2074024975299835</v>
       </c>
       <c r="E56" t="n">
-        <v>449</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4585304260253906</v>
+        <v>0.4391880035400391</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1940794289112091</v>
+        <v>0.1770200580358505</v>
       </c>
       <c r="E58" t="n">
-        <v>720</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2396646440029144</v>
+        <v>0.1750841587781906</v>
       </c>
       <c r="E59" t="n">
-        <v>331</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2199594229459763</v>
+        <v>0.2270775884389877</v>
       </c>
       <c r="E60" t="n">
-        <v>484</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1455434709787369</v>
+        <v>0.1587701886892319</v>
       </c>
       <c r="E61" t="n">
-        <v>1364</v>
+        <v>861</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>0.138735443353653</v>
+        <v>0.1884401589632034</v>
       </c>
       <c r="E62" t="n">
-        <v>1499</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>0.352266788482666</v>
+        <v>0.2948527634143829</v>
       </c>
       <c r="E63" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1769354492425919</v>
+        <v>0.1594184041023254</v>
       </c>
       <c r="E64" t="n">
-        <v>933</v>
+        <v>854</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2578607797622681</v>
+        <v>0.2499549090862274</v>
       </c>
       <c r="E65" t="n">
-        <v>219</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3099786937236786</v>
+        <v>0.3305988311767578</v>
       </c>
       <c r="E66" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3658066391944885</v>
+        <v>0.3634657263755798</v>
       </c>
       <c r="E67" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1976282745599747</v>
+        <v>0.1408333033323288</v>
       </c>
       <c r="E68" t="n">
-        <v>692</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>0.417904794216156</v>
+        <v>0.3975723385810852</v>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3122577667236328</v>
+        <v>0.2901092171669006</v>
       </c>
       <c r="E70" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2191529870033264</v>
+        <v>0.2041650265455246</v>
       </c>
       <c r="E71" t="n">
-        <v>490</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4192670881748199</v>
+        <v>0.3646829426288605</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3459978699684143</v>
+        <v>0.3596295118331909</v>
       </c>
       <c r="E73" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2219286113977432</v>
+        <v>0.2044113278388977</v>
       </c>
       <c r="E74" t="n">
-        <v>469</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1569478064775467</v>
+        <v>0.01635708846151829</v>
       </c>
       <c r="E75" t="n">
-        <v>1193</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0379890650510788</v>
+        <v>0.00878266803920269</v>
       </c>
       <c r="E76" t="n">
-        <v>13044</v>
+        <v>83266</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1065472811460495</v>
+        <v>0.1418010294437408</v>
       </c>
       <c r="E77" t="n">
-        <v>493</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3366574943065643</v>
+        <v>0.376567006111145</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1395975351333618</v>
+        <v>0.1838640868663788</v>
       </c>
       <c r="E79" t="n">
-        <v>225</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2286152541637421</v>
+        <v>0.259564220905304</v>
       </c>
       <c r="E80" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1573893874883652</v>
+        <v>0.09775798767805099</v>
       </c>
       <c r="E81" t="n">
-        <v>150</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03006796352565289</v>
+        <v>0.1038462072610855</v>
       </c>
       <c r="E82" t="n">
-        <v>9112</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2500731647014618</v>
+        <v>0.3317722678184509</v>
       </c>
       <c r="E83" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1274197548627853</v>
+        <v>0.1703271716833115</v>
       </c>
       <c r="E84" t="n">
-        <v>291</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2681497633457184</v>
+        <v>0.2891784012317657</v>
       </c>
       <c r="E85" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2344132363796234</v>
+        <v>0.2692937850952148</v>
       </c>
       <c r="E86" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2663590312004089</v>
+        <v>0.2646455466747284</v>
       </c>
       <c r="E87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1248941719532013</v>
+        <v>0.08821225166320801</v>
       </c>
       <c r="E88" t="n">
-        <v>310</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.287640780210495</v>
+        <v>0.3119728863239288</v>
       </c>
       <c r="E89" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3266381323337555</v>
+        <v>0.299761176109314</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3819901347160339</v>
+        <v>0.3405728340148926</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1004885509610176</v>
+        <v>0.05639610812067986</v>
       </c>
       <c r="E92" t="n">
-        <v>586</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1677979230880737</v>
+        <v>0.1494048982858658</v>
       </c>
       <c r="E93" t="n">
-        <v>125</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1661352962255478</v>
+        <v>0.2082972973585129</v>
       </c>
       <c r="E94" t="n">
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2003906220197678</v>
+        <v>0.2297807037830353</v>
       </c>
       <c r="E95" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.198926642537117</v>
+        <v>0.250400573015213</v>
       </c>
       <c r="E96" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09759259968996048</v>
+        <v>0.1507584005594254</v>
       </c>
       <c r="E97" t="n">
-        <v>633</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08559126406908035</v>
+        <v>0.1503719836473465</v>
       </c>
       <c r="E98" t="n">
-        <v>886</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1383259445428848</v>
+        <v>0.1282682716846466</v>
       </c>
       <c r="E99" t="n">
-        <v>236</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09131541103124619</v>
+        <v>0.2106499522924423</v>
       </c>
       <c r="E100" t="n">
-        <v>764</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>0.09079237282276154</v>
+        <v>0.2107370048761368</v>
       </c>
       <c r="E101" t="n">
-        <v>772</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2903992235660553</v>
+        <v>0.3288350403308868</v>
       </c>
       <c r="E102" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07376176863908768</v>
+        <v>0.1469849199056625</v>
       </c>
       <c r="E103" t="n">
-        <v>1299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1341984868049622</v>
+        <v>0.1605789363384247</v>
       </c>
       <c r="E104" t="n">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0375714898109436</v>
+        <v>0.1124027594923973</v>
       </c>
       <c r="E105" t="n">
-        <v>5762</v>
+        <v>802</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.211503192782402</v>
+        <v>0.2063769996166229</v>
       </c>
       <c r="E106" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.07329706847667694</v>
+        <v>0.1818721294403076</v>
       </c>
       <c r="E107" t="n">
-        <v>1313</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09852166473865509</v>
+        <v>0.103582538664341</v>
       </c>
       <c r="E108" t="n">
-        <v>622</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2061354517936707</v>
+        <v>0.1942645013332367</v>
       </c>
       <c r="E109" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2692913413047791</v>
+        <v>0.3040170967578888</v>
       </c>
       <c r="E110" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1147594526410103</v>
+        <v>0.1887530982494354</v>
       </c>
       <c r="E111" t="n">
-        <v>395</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>0.107435517013073</v>
+        <v>0.1589726507663727</v>
       </c>
       <c r="E112" t="n">
-        <v>487</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09901430457830429</v>
+        <v>0.1214886829257011</v>
       </c>
       <c r="E113" t="n">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.04348631948232651</v>
+        <v>0.3181132078170776</v>
       </c>
       <c r="E114" t="n">
-        <v>4201</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.08598320186138153</v>
+        <v>0.05364196002483368</v>
       </c>
       <c r="E115" t="n">
-        <v>249</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07143016159534454</v>
+        <v>0.2998703718185425</v>
       </c>
       <c r="E116" t="n">
-        <v>526</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>0.04754512757062912</v>
+        <v>0.3832206130027771</v>
       </c>
       <c r="E117" t="n">
-        <v>2524</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.04722484946250916</v>
+        <v>0.3935725390911102</v>
       </c>
       <c r="E118" t="n">
-        <v>2606</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08453912287950516</v>
+        <v>0.3562755286693573</v>
       </c>
       <c r="E119" t="n">
-        <v>272</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>0.07685890793800354</v>
+        <v>0.4364098310470581</v>
       </c>
       <c r="E120" t="n">
-        <v>404</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0840979740023613</v>
+        <v>0.07644043862819672</v>
       </c>
       <c r="E121" t="n">
-        <v>276</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0572868324816227</v>
+        <v>0.08954037725925446</v>
       </c>
       <c r="E122" t="n">
-        <v>1211</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.05161495879292488</v>
+        <v>0.3152279555797577</v>
       </c>
       <c r="E123" t="n">
-        <v>1826</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>0.04581810906529427</v>
+        <v>0.05308188870549202</v>
       </c>
       <c r="E124" t="n">
-        <v>2931</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.04603521525859833</v>
+        <v>0.4001686573028564</v>
       </c>
       <c r="E125" t="n">
-        <v>2867</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.07993387430906296</v>
+        <v>0.3947629630565643</v>
       </c>
       <c r="E126" t="n">
-        <v>347</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>0.04502085968852043</v>
+        <v>0.3154347836971283</v>
       </c>
       <c r="E127" t="n">
-        <v>3128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1208146288990974</v>
+        <v>0.4278744757175446</v>
       </c>
       <c r="E128" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.05787470191717148</v>
+        <v>0.1744552403688431</v>
       </c>
       <c r="E129" t="n">
-        <v>1162</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02943352796137333</v>
+        <v>0.03924663737416267</v>
       </c>
       <c r="E130" t="n">
-        <v>15963</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03566176816821098</v>
+        <v>0.03653318807482719</v>
       </c>
       <c r="E131" t="n">
-        <v>7642</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>0.05592821165919304</v>
+        <v>0.0669858306646347</v>
       </c>
       <c r="E132" t="n">
-        <v>1320</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.05621879920363426</v>
+        <v>0.2927364706993103</v>
       </c>
       <c r="E133" t="n">
-        <v>1297</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06776946038007736</v>
+        <v>0.4495600163936615</v>
       </c>
       <c r="E134" t="n">
-        <v>649</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>0.09704775363206863</v>
+        <v>0.3911691308021545</v>
       </c>
       <c r="E135" t="n">
-        <v>135</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07849925011396408</v>
+        <v>0.299657940864563</v>
       </c>
       <c r="E136" t="n">
-        <v>376</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>0.06771143525838852</v>
+        <v>0.4426560699939728</v>
       </c>
       <c r="E137" t="n">
-        <v>651</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1290119290351868</v>
+        <v>0.3639891445636749</v>
       </c>
       <c r="E138" t="n">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.05829501152038574</v>
+        <v>0.3650656044483185</v>
       </c>
       <c r="E139" t="n">
-        <v>1121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>0.06921031326055527</v>
+        <v>0.4340493977069855</v>
       </c>
       <c r="E140" t="n">
-        <v>601</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07344087213277817</v>
+        <v>0.05381006747484207</v>
       </c>
       <c r="E141" t="n">
-        <v>477</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>0.055909663438797</v>
+        <v>0.08002087473869324</v>
       </c>
       <c r="E142" t="n">
-        <v>1322</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1147319152951241</v>
+        <v>0.06931677460670471</v>
       </c>
       <c r="E143" t="n">
-        <v>60</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1140773817896843</v>
+        <v>0.3817018866539001</v>
       </c>
       <c r="E144" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.04595432430505753</v>
+        <v>0.04144316539168358</v>
       </c>
       <c r="E145" t="n">
-        <v>2892</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1096006259322166</v>
+        <v>0.1086382865905762</v>
       </c>
       <c r="E146" t="n">
-        <v>77</v>
+        <v>848</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>0.07451434433460236</v>
+        <v>0.06478691846132278</v>
       </c>
       <c r="E147" t="n">
-        <v>454</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0365016907453537</v>
+        <v>0.0682908296585083</v>
       </c>
       <c r="E148" t="n">
-        <v>7000</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0365016907453537</v>
+        <v>0.0682908296585083</v>
       </c>
       <c r="E149" t="n">
-        <v>6999</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1038534045219421</v>
+        <v>0.210653692483902</v>
       </c>
       <c r="E150" t="n">
-        <v>96</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0633275955915451</v>
+        <v>0.04818052053451538</v>
       </c>
       <c r="E151" t="n">
-        <v>813</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.04487406834959984</v>
+        <v>0.3290948867797852</v>
       </c>
       <c r="E152" t="n">
-        <v>3167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02217528037726879</v>
+        <v>0.04872845858335495</v>
       </c>
       <c r="E153" t="n">
-        <v>41936</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0.08057526499032974</v>
+        <v>0.3602263033390045</v>
       </c>
       <c r="E154" t="n">
-        <v>336</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0297283548861742</v>
+        <v>0.288401186466217</v>
       </c>
       <c r="E155" t="n">
-        <v>15373</v>
+        <v>228</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.04837200045585632</v>
+        <v>0.2779645919799805</v>
       </c>
       <c r="E156" t="n">
-        <v>2330</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.05214958265423775</v>
+        <v>0.2016664445400238</v>
       </c>
       <c r="E157" t="n">
-        <v>1753</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.07961574196815491</v>
+        <v>0.2403998374938965</v>
       </c>
       <c r="E158" t="n">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>0.06950731575489044</v>
+        <v>0.3094806373119354</v>
       </c>
       <c r="E159" t="n">
-        <v>589</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>0.05438487231731415</v>
+        <v>0.4219805896282196</v>
       </c>
       <c r="E160" t="n">
-        <v>1505</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.02787783741950989</v>
+        <v>0.3732037544250488</v>
       </c>
       <c r="E161" t="n">
-        <v>19508</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>0.02149299904704094</v>
+        <v>0.2294634282588959</v>
       </c>
       <c r="E162" t="n">
-        <v>46010</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>0.05006976425647736</v>
+        <v>0.2509541809558868</v>
       </c>
       <c r="E163" t="n">
-        <v>2041</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07364673912525177</v>
+        <v>0.3418164551258087</v>
       </c>
       <c r="E164" t="n">
-        <v>472</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.03310709074139595</v>
+        <v>0.04915459454059601</v>
       </c>
       <c r="E165" t="n">
-        <v>10148</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0765216276049614</v>
+        <v>0.3922629654407501</v>
       </c>
       <c r="E166" t="n">
-        <v>412</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.04253891110420227</v>
+        <v>0.2730227708816528</v>
       </c>
       <c r="E167" t="n">
-        <v>3883</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08553584665060043</v>
+        <v>0.4074364304542542</v>
       </c>
       <c r="E168" t="n">
-        <v>256</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>0.07404746115207672</v>
+        <v>0.4347268342971802</v>
       </c>
       <c r="E169" t="n">
-        <v>464</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1167155131697655</v>
+        <v>0.374724417924881</v>
       </c>
       <c r="E170" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>0.06108953803777695</v>
+        <v>0.3354198932647705</v>
       </c>
       <c r="E171" t="n">
-        <v>921</v>
+        <v>133</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>0.06430092453956604</v>
+        <v>0.4791087210178375</v>
       </c>
       <c r="E172" t="n">
-        <v>778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>0.01764418929815292</v>
+        <v>0.4037860035896301</v>
       </c>
       <c r="E173" t="n">
-        <v>76958</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1027859300374985</v>
+        <v>0.1069312691688538</v>
       </c>
       <c r="E174" t="n">
-        <v>5720</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2876111567020416</v>
+        <v>0.2886307537555695</v>
       </c>
       <c r="E175" t="n">
-        <v>803</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4344418942928314</v>
+        <v>0.3892291486263275</v>
       </c>
       <c r="E176" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>0.09847696870565414</v>
+        <v>0.1384250074625015</v>
       </c>
       <c r="E177" t="n">
-        <v>6024</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4722184836864471</v>
+        <v>0.4204225838184357</v>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>0.02228769101202488</v>
+        <v>0.02203400060534477</v>
       </c>
       <c r="E179" t="n">
-        <v>61448</v>
+        <v>53393</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2947486937046051</v>
+        <v>0.2442948967218399</v>
       </c>
       <c r="E180" t="n">
-        <v>735</v>
+        <v>819</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2332680374383926</v>
+        <v>0.265162467956543</v>
       </c>
       <c r="E181" t="n">
-        <v>1570</v>
+        <v>589</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0748802125453949</v>
+        <v>0.06339825689792633</v>
       </c>
       <c r="E182" t="n">
-        <v>8170</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>0.15418741106987</v>
+        <v>0.1578858643770218</v>
       </c>
       <c r="E183" t="n">
-        <v>3434</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3394479155540466</v>
+        <v>0.2662231624126434</v>
       </c>
       <c r="E184" t="n">
-        <v>365</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2678557336330414</v>
+        <v>0.232047975063324</v>
       </c>
       <c r="E185" t="n">
-        <v>1046</v>
+        <v>976</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1554792821407318</v>
+        <v>0.1029384657740593</v>
       </c>
       <c r="E186" t="n">
-        <v>3391</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1441317796707153</v>
+        <v>0.1945727169513702</v>
       </c>
       <c r="E187" t="n">
-        <v>3790</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1515029519796371</v>
+        <v>0.1035327985882759</v>
       </c>
       <c r="E188" t="n">
-        <v>3527</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>0.230167418718338</v>
+        <v>0.2131534367799759</v>
       </c>
       <c r="E189" t="n">
-        <v>1628</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2433401495218277</v>
+        <v>0.2275019884109497</v>
       </c>
       <c r="E190" t="n">
-        <v>1401</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1421949416399002</v>
+        <v>0.1081354022026062</v>
       </c>
       <c r="E191" t="n">
-        <v>3854</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2303633391857147</v>
+        <v>0.1408121883869171</v>
       </c>
       <c r="E192" t="n">
-        <v>1622</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2275103777647018</v>
+        <v>0.1747754514217377</v>
       </c>
       <c r="E193" t="n">
-        <v>1681</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2652241587638855</v>
+        <v>0.1681469827890396</v>
       </c>
       <c r="E194" t="n">
-        <v>1071</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4613324999809265</v>
+        <v>0.4246832430362701</v>
       </c>
       <c r="E195" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>0.35878986120224</v>
+        <v>0.4302936196327209</v>
       </c>
       <c r="E196" t="n">
-        <v>238</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.35878986120224</v>
+        <v>0.4302936196327209</v>
       </c>
       <c r="E197" t="n">
-        <v>237</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3572036623954773</v>
+        <v>0.3878035545349121</v>
       </c>
       <c r="E198" t="n">
-        <v>253</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3656027019023895</v>
+        <v>0.3473380208015442</v>
       </c>
       <c r="E199" t="n">
-        <v>205</v>
+        <v>120</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>0.460849940776825</v>
+        <v>0.4195197820663452</v>
       </c>
       <c r="E200" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1497960537672043</v>
+        <v>0.1209515780210495</v>
       </c>
       <c r="E201" t="n">
-        <v>3591</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2725790441036224</v>
+        <v>0.256664901971817</v>
       </c>
       <c r="E202" t="n">
-        <v>982</v>
+        <v>679</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.1580060720443726</v>
+        <v>0.2613140940666199</v>
       </c>
       <c r="E203" t="n">
-        <v>2499</v>
+        <v>262</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1429385095834732</v>
+        <v>0.2580642700195312</v>
       </c>
       <c r="E204" t="n">
-        <v>3555</v>
+        <v>296</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1502461284399033</v>
+        <v>0.2034140527248383</v>
       </c>
       <c r="E205" t="n">
-        <v>3008</v>
+        <v>887</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2822236716747284</v>
+        <v>0.2304377257823944</v>
       </c>
       <c r="E206" t="n">
-        <v>28</v>
+        <v>528</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2261348962783813</v>
+        <v>0.2960024178028107</v>
       </c>
       <c r="E207" t="n">
-        <v>323</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.03214226290583611</v>
+        <v>0.03385394439101219</v>
       </c>
       <c r="E208" t="n">
-        <v>45373</v>
+        <v>40560</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1338507235050201</v>
+        <v>0.1947588324546814</v>
       </c>
       <c r="E209" t="n">
-        <v>4335</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1293779313564301</v>
+        <v>0.1720044910907745</v>
       </c>
       <c r="E210" t="n">
-        <v>4786</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.01989699155092239</v>
+        <v>0.08613312989473343</v>
       </c>
       <c r="E211" t="n">
-        <v>85431</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>0.1916739642620087</v>
+        <v>0.24065962433815</v>
       </c>
       <c r="E212" t="n">
-        <v>995</v>
+        <v>444</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1998026221990585</v>
+        <v>0.1076050624251366</v>
       </c>
       <c r="E213" t="n">
-        <v>778</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.156720444560051</v>
+        <v>0.2461346238851547</v>
       </c>
       <c r="E214" t="n">
-        <v>2577</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>0.2109251320362091</v>
+        <v>0.2975073158740997</v>
       </c>
       <c r="E215" t="n">
-        <v>538</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.2087947428226471</v>
+        <v>0.2740893065929413</v>
       </c>
       <c r="E216" t="n">
-        <v>576</v>
+        <v>173</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>0.1635606288909912</v>
+        <v>0.2549885213375092</v>
       </c>
       <c r="E217" t="n">
-        <v>2166</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2932124137878418</v>
+        <v>0.3064850866794586</v>
       </c>
       <c r="E218" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.1833558827638626</v>
+        <v>0.2566801309585571</v>
       </c>
       <c r="E219" t="n">
-        <v>1250</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.3403401672840118</v>
+        <v>0.182867705821991</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1824678927659988</v>
+        <v>0.2162125259637833</v>
       </c>
       <c r="E221" t="n">
-        <v>1280</v>
+        <v>675</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2325394004583359</v>
+        <v>0.2903169393539429</v>
       </c>
       <c r="E222" t="n">
-        <v>253</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1593437194824219</v>
+        <v>0.258227527141571</v>
       </c>
       <c r="E223" t="n">
-        <v>2401</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.08053706586360931</v>
+        <v>0.08952968567609787</v>
       </c>
       <c r="E224" t="n">
-        <v>12541</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1718674898147583</v>
+        <v>0.2111114114522934</v>
       </c>
       <c r="E225" t="n">
-        <v>1730</v>
+        <v>794</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1273430287837982</v>
+        <v>0.1571649312973022</v>
       </c>
       <c r="E226" t="n">
-        <v>4992</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.1985932886600494</v>
+        <v>0.1592940837144852</v>
       </c>
       <c r="E227" t="n">
-        <v>809</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.2922238707542419</v>
+        <v>0.3438836932182312</v>
       </c>
       <c r="E228" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.244978278875351</v>
+        <v>0.3158679306507111</v>
       </c>
       <c r="E229" t="n">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2703102827072144</v>
+        <v>0.3418362438678741</v>
       </c>
       <c r="E230" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.2322617173194885</v>
+        <v>0.3090760707855225</v>
       </c>
       <c r="E231" t="n">
-        <v>259</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>0.2086941003799438</v>
+        <v>0.3145151734352112</v>
       </c>
       <c r="E232" t="n">
-        <v>578</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>0.1983619183301926</v>
+        <v>0.2651879489421844</v>
       </c>
       <c r="E233" t="n">
-        <v>814</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1612261086702347</v>
+        <v>0.2937793433666229</v>
       </c>
       <c r="E234" t="n">
-        <v>2295</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.2448425441980362</v>
+        <v>0.3095599114894867</v>
       </c>
       <c r="E235" t="n">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.02511031553149223</v>
+        <v>0.07712513208389282</v>
       </c>
       <c r="E236" t="n">
-        <v>64120</v>
+        <v>10722</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>0.1302079409360886</v>
+        <v>0.09157600253820419</v>
       </c>
       <c r="E237" t="n">
-        <v>4703</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1770206242799759</v>
+        <v>0.2787239849567413</v>
       </c>
       <c r="E238" t="n">
-        <v>1484</v>
+        <v>140</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>0.2427637428045273</v>
+        <v>0.3241082429885864</v>
       </c>
       <c r="E239" t="n">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1810189336538315</v>
+        <v>0.1686353534460068</v>
       </c>
       <c r="E240" t="n">
-        <v>1329</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>0.1946193277835846</v>
+        <v>0.2622787356376648</v>
       </c>
       <c r="E241" t="n">
-        <v>911</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.07701340317726135</v>
+        <v>0.07341912388801575</v>
       </c>
       <c r="E242" t="n">
-        <v>13503</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>0.2244722545146942</v>
+        <v>0.2617034018039703</v>
       </c>
       <c r="E243" t="n">
-        <v>344</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>0.02924374863505363</v>
+        <v>0.1275585889816284</v>
       </c>
       <c r="E244" t="n">
-        <v>51928</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>0.2734986841678619</v>
+        <v>0.3532661199569702</v>
       </c>
       <c r="E245" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.1004814058542252</v>
+        <v>0.09507963806390762</v>
       </c>
       <c r="E246" t="n">
-        <v>8593</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>0.146095797419548</v>
+        <v>0.1859363466501236</v>
       </c>
       <c r="E247" t="n">
-        <v>3302</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>0.07797948271036148</v>
+        <v>0.1265712231397629</v>
       </c>
       <c r="E248" t="n">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>0.1773898899555206</v>
+        <v>0.06532629579305649</v>
       </c>
       <c r="E249" t="n">
-        <v>22</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>0.09509359300136566</v>
+        <v>0.02953180111944675</v>
       </c>
       <c r="E250" t="n">
-        <v>134</v>
+        <v>24876</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>0.2177641689777374</v>
+        <v>0.06608348339796066</v>
       </c>
       <c r="E251" t="n">
-        <v>16</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1354088932275772</v>
+        <v>0.2447827458381653</v>
       </c>
       <c r="E252" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4037457704544067</v>
+        <v>0.07287921756505966</v>
       </c>
       <c r="E253" t="n">
-        <v>6</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>0.08641941100358963</v>
+        <v>0.04923208802938461</v>
       </c>
       <c r="E254" t="n">
-        <v>181</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>0.09832864999771118</v>
+        <v>0.1944614946842194</v>
       </c>
       <c r="E255" t="n">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>0.1579989939928055</v>
+        <v>0.2236973792314529</v>
       </c>
       <c r="E256" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5361345410346985</v>
+        <v>0.0592486783862114</v>
       </c>
       <c r="E257" t="n">
-        <v>4</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1369816660881042</v>
+        <v>0.2182326316833496</v>
       </c>
       <c r="E258" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1887623071670532</v>
+        <v>0.1150065809488297</v>
       </c>
       <c r="E259" t="n">
-        <v>21</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>0.6686183214187622</v>
+        <v>0.06058411672711372</v>
       </c>
       <c r="E260" t="n">
-        <v>2</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>0.3218858242034912</v>
+        <v>0.03270465135574341</v>
       </c>
       <c r="E261" t="n">
-        <v>8</v>
+        <v>19451</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1541980504989624</v>
+        <v>0.168362095952034</v>
       </c>
       <c r="E262" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>0.1150732710957527</v>
+        <v>0.2184866964817047</v>
       </c>
       <c r="E263" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>0.6692875623703003</v>
+        <v>0.101110652089119</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>575</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>0.1037475988268852</v>
+        <v>0.190217599272728</v>
       </c>
       <c r="E265" t="n">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>0.05440961197018623</v>
+        <v>0.1620675921440125</v>
       </c>
       <c r="E266" t="n">
-        <v>626</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>0.08718226104974747</v>
+        <v>0.2471815049648285</v>
       </c>
       <c r="E267" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>0.5471366047859192</v>
+        <v>0.09199864417314529</v>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>825</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>0.3605350255966187</v>
+        <v>0.0175087247043848</v>
       </c>
       <c r="E269" t="n">
-        <v>7</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1968080699443817</v>
+        <v>0.3053562045097351</v>
       </c>
       <c r="E270" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>0.0287417396903038</v>
+        <v>0.06492507457733154</v>
       </c>
       <c r="E271" t="n">
-        <v>3735</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>0.2196813374757767</v>
+        <v>0.01915394514799118</v>
       </c>
       <c r="E272" t="n">
-        <v>15</v>
+        <v>61989</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>0.1978604942560196</v>
+        <v>0.3872667253017426</v>
       </c>
       <c r="E273" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0445927232503891</v>
+        <v>0.08337122946977615</v>
       </c>
       <c r="E274" t="n">
-        <v>4115</v>
+        <v>856</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>0.04747992753982544</v>
+        <v>0.03929346799850464</v>
       </c>
       <c r="E275" t="n">
-        <v>3682</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>0.066672682762146</v>
+        <v>0.046802818775177</v>
       </c>
       <c r="E276" t="n">
-        <v>1981</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>0.09319013357162476</v>
+        <v>0.1593387424945831</v>
       </c>
       <c r="E277" t="n">
-        <v>1028</v>
+        <v>204</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>0.09047380089759827</v>
+        <v>0.09743444621562958</v>
       </c>
       <c r="E278" t="n">
-        <v>1106</v>
+        <v>611</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>0.09003840386867523</v>
+        <v>0.08500101417303085</v>
       </c>
       <c r="E279" t="n">
-        <v>1120</v>
+        <v>812</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>0.08806069195270538</v>
+        <v>0.07051337510347366</v>
       </c>
       <c r="E280" t="n">
-        <v>1176</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1632405370473862</v>
+        <v>0.144978791475296</v>
       </c>
       <c r="E281" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>0.006954320706427097</v>
+        <v>0.0178337674587965</v>
       </c>
       <c r="E282" t="n">
-        <v>91724</v>
+        <v>25711</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>0.07305013388395309</v>
+        <v>0.1271558105945587</v>
       </c>
       <c r="E283" t="n">
-        <v>1658</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>0.1681826859712601</v>
+        <v>0.1587658226490021</v>
       </c>
       <c r="E284" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1187586709856987</v>
+        <v>0.1079515591263771</v>
       </c>
       <c r="E285" t="n">
-        <v>622</v>
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>0.2232915014028549</v>
+        <v>0.1169474273920059</v>
       </c>
       <c r="E286" t="n">
-        <v>84</v>
+        <v>409</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>0.1694514453411102</v>
+        <v>0.2027172297239304</v>
       </c>
       <c r="E287" t="n">
-        <v>231</v>
+        <v>96</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>0.2171365320682526</v>
+        <v>0.1478680968284607</v>
       </c>
       <c r="E288" t="n">
-        <v>102</v>
+        <v>250</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>0.2171365320682526</v>
+        <v>0.1478680968284607</v>
       </c>
       <c r="E289" t="n">
-        <v>101</v>
+        <v>249</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1002994924783707</v>
+        <v>0.1642045378684998</v>
       </c>
       <c r="E290" t="n">
-        <v>890</v>
+        <v>187</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>0.01988049410283566</v>
+        <v>0.1756118983030319</v>
       </c>
       <c r="E291" t="n">
-        <v>17603</v>
+        <v>143</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>0.02285308390855789</v>
+        <v>0.1347091048955917</v>
       </c>
       <c r="E292" t="n">
-        <v>13534</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>0.2091235816478729</v>
+        <v>0.3484033048152924</v>
       </c>
       <c r="E293" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>0.2225391119718552</v>
+        <v>0.3530396819114685</v>
       </c>
       <c r="E294" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0222034864127636</v>
+        <v>0.07302083820104599</v>
       </c>
       <c r="E295" t="n">
-        <v>14268</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>0.04306664690375328</v>
+        <v>0.1454213410615921</v>
       </c>
       <c r="E296" t="n">
-        <v>4371</v>
+        <v>259</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>0.07235598564147949</v>
+        <v>0.1667481809854507</v>
       </c>
       <c r="E297" t="n">
-        <v>1697</v>
+        <v>171</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>0.09215767681598663</v>
+        <v>0.1536741107702255</v>
       </c>
       <c r="E298" t="n">
-        <v>1068</v>
+        <v>228</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>0.1987372189760208</v>
+        <v>0.178445041179657</v>
       </c>
       <c r="E299" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>0.0451124794781208</v>
+        <v>0.04929249361157417</v>
       </c>
       <c r="E300" t="n">
-        <v>4032</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>0.0469362661242485</v>
+        <v>0.0150602338835597</v>
       </c>
       <c r="E301" t="n">
-        <v>3758</v>
+        <v>37083</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>0.0469362661242485</v>
+        <v>0.0150602338835597</v>
       </c>
       <c r="E302" t="n">
-        <v>3757</v>
+        <v>37082</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>0.01586810871958733</v>
+        <v>0.09040926396846771</v>
       </c>
       <c r="E303" t="n">
-        <v>26677</v>
+        <v>718</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>0.06161769852042198</v>
+        <v>0.0757034495472908</v>
       </c>
       <c r="E304" t="n">
-        <v>4577</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>0.178536519408226</v>
+        <v>0.2043402343988419</v>
       </c>
       <c r="E305" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>0.2085428982973099</v>
+        <v>0.2295034378767014</v>
       </c>
       <c r="E306" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>0.06210333853960037</v>
+        <v>0.0638858899474144</v>
       </c>
       <c r="E307" t="n">
-        <v>4475</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>0.01767281256616116</v>
+        <v>0.02169172093272209</v>
       </c>
       <c r="E308" t="n">
-        <v>80692</v>
+        <v>57379</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>0.02017371729016304</v>
+        <v>0.0292452797293663</v>
       </c>
       <c r="E309" t="n">
-        <v>65457</v>
+        <v>30216</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>0.06200447678565979</v>
+        <v>0.0908387079834938</v>
       </c>
       <c r="E310" t="n">
-        <v>4498</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>0.3370316922664642</v>
+        <v>0.3031603693962097</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>0.1459520012140274</v>
+        <v>0.169357106089592</v>
       </c>
       <c r="E312" t="n">
-        <v>294</v>
+        <v>129</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>0.1671835035085678</v>
+        <v>0.1930236369371414</v>
       </c>
       <c r="E313" t="n">
-        <v>152</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>0.004648426547646523</v>
+        <v>0.008811252191662788</v>
       </c>
       <c r="E314" t="n">
-        <v>242842</v>
+        <v>187581</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>0.01744175516068935</v>
+        <v>0.02977011352777481</v>
       </c>
       <c r="E315" t="n">
-        <v>82328</v>
+        <v>29016</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>0.01043192390352488</v>
+        <v>0.02157621458172798</v>
       </c>
       <c r="E316" t="n">
-        <v>153696</v>
+        <v>57988</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>0.1272253096103668</v>
+        <v>0.1334941685199738</v>
       </c>
       <c r="E317" t="n">
-        <v>505</v>
+        <v>385</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>0.1013080924749374</v>
+        <v>0.1142846569418907</v>
       </c>
       <c r="E318" t="n">
-        <v>997</v>
+        <v>663</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>0.05058181658387184</v>
+        <v>0.04143605753779411</v>
       </c>
       <c r="E319" t="n">
-        <v>8375</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>0.1072155609726906</v>
+        <v>0.1370445638895035</v>
       </c>
       <c r="E320" t="n">
-        <v>865</v>
+        <v>345</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>0.1298244297504425</v>
+        <v>0.1226084902882576</v>
       </c>
       <c r="E321" t="n">
-        <v>463</v>
+        <v>503</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>0.372803270816803</v>
+        <v>0.3303929567337036</v>
       </c>
       <c r="E322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>0.3613690435886383</v>
+        <v>0.3458868563175201</v>
       </c>
       <c r="E323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,7 +7034,7 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>0.2073040455579758</v>
+        <v>0.2051169127225876</v>
       </c>
       <c r="E324" t="n">
         <v>31</v>
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>0.378087192773819</v>
+        <v>0.3626758754253387</v>
       </c>
       <c r="E325" t="n">
         <v>1</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>0.1679107397794724</v>
+        <v>0.174432635307312</v>
       </c>
       <c r="E326" t="n">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>0.2316938042640686</v>
+        <v>0.1810826659202576</v>
       </c>
       <c r="E327" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>0.06077910587191582</v>
+        <v>0.07020251452922821</v>
       </c>
       <c r="E328" t="n">
-        <v>4795</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>0.1943866610527039</v>
+        <v>0.1633550524711609</v>
       </c>
       <c r="E329" t="n">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>0.01686977595090866</v>
+        <v>0.01974108256399632</v>
       </c>
       <c r="E330" t="n">
-        <v>86354</v>
+        <v>68588</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>0.1534020006656647</v>
+        <v>0.1667589843273163</v>
       </c>
       <c r="E331" t="n">
-        <v>237</v>
+        <v>143</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>0.0554002970457077</v>
+        <v>0.07685533165931702</v>
       </c>
       <c r="E332" t="n">
-        <v>6388</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>0.110385537147522</v>
+        <v>0.106892891228199</v>
       </c>
       <c r="E333" t="n">
-        <v>767</v>
+        <v>806</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,7 +7204,7 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>0.3009738028049469</v>
+        <v>0.2918091118335724</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>0.02393143251538277</v>
+        <v>0.02608502842485905</v>
       </c>
       <c r="E335" t="n">
-        <v>48320</v>
+        <v>39266</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>0.1991875171661377</v>
+        <v>0.1481627225875854</v>
       </c>
       <c r="E336" t="n">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>0.02531160600483418</v>
+        <v>0.02835032157599926</v>
       </c>
       <c r="E337" t="n">
-        <v>43534</v>
+        <v>32508</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>0.02759740501642227</v>
+        <v>0.01972583495080471</v>
       </c>
       <c r="E338" t="n">
-        <v>36721</v>
+        <v>68684</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>0.03821344673633575</v>
+        <v>0.03663437440991402</v>
       </c>
       <c r="E339" t="n">
-        <v>17492</v>
+        <v>17577</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>0.04445545002818108</v>
+        <v>0.0518583320081234</v>
       </c>
       <c r="E340" t="n">
-        <v>11891</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>0.02289420738816261</v>
+        <v>0.01845762878656387</v>
       </c>
       <c r="E341" t="n">
-        <v>52454</v>
+        <v>77305</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>0.02717498689889908</v>
+        <v>0.02994445711374283</v>
       </c>
       <c r="E342" t="n">
-        <v>37875</v>
+        <v>28623</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>0.01060204580426216</v>
+        <v>0.01098036672919989</v>
       </c>
       <c r="E343" t="n">
-        <v>151375</v>
+        <v>155816</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>0.04397960379719734</v>
+        <v>0.20497065782547</v>
       </c>
       <c r="E344" t="n">
-        <v>2501</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>0.03240895643830299</v>
+        <v>0.06596114486455917</v>
       </c>
       <c r="E345" t="n">
-        <v>6757</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>0.04047896713018417</v>
+        <v>0.2075333744287491</v>
       </c>
       <c r="E346" t="n">
-        <v>3248</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>0.04262145236134529</v>
+        <v>0.09381392598152161</v>
       </c>
       <c r="E347" t="n">
-        <v>2750</v>
+        <v>565</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>0.04227897524833679</v>
+        <v>0.09465453773736954</v>
       </c>
       <c r="E348" t="n">
-        <v>2805</v>
+        <v>538</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>0.04675501585006714</v>
+        <v>0.08198162913322449</v>
       </c>
       <c r="E349" t="n">
-        <v>2053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>0.02464239671826363</v>
+        <v>0.1044181734323502</v>
       </c>
       <c r="E350" t="n">
-        <v>14692</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>0.02310107834637165</v>
+        <v>0.0714932307600975</v>
       </c>
       <c r="E351" t="n">
-        <v>17339</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>0.1126994118094444</v>
+        <v>0.03108792193233967</v>
       </c>
       <c r="E352" t="n">
-        <v>45</v>
+        <v>24220</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>0.04007749259471893</v>
+        <v>0.1208165362477303</v>
       </c>
       <c r="E353" t="n">
-        <v>3350</v>
+        <v>175</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>0.1520022302865982</v>
+        <v>0.04914025217294693</v>
       </c>
       <c r="E354" t="n">
-        <v>10</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>0.03736910223960876</v>
+        <v>0.02326314523816109</v>
       </c>
       <c r="E355" t="n">
-        <v>4262</v>
+        <v>43125</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>0.06453192234039307</v>
+        <v>0.02615984715521336</v>
       </c>
       <c r="E356" t="n">
-        <v>595</v>
+        <v>34656</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>0.01327210012823343</v>
+        <v>0.03647686913609505</v>
       </c>
       <c r="E357" t="n">
-        <v>55062</v>
+        <v>16623</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>0.01853942684829235</v>
+        <v>0.05454451963305473</v>
       </c>
       <c r="E358" t="n">
-        <v>29254</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>0.0648496225476265</v>
+        <v>0.1907457411289215</v>
       </c>
       <c r="E359" t="n">
-        <v>583</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>0.180764839053154</v>
+        <v>0.02825501188635826</v>
       </c>
       <c r="E360" t="n">
-        <v>6</v>
+        <v>29635</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>0.03546801581978798</v>
+        <v>0.1556917130947113</v>
       </c>
       <c r="E361" t="n">
-        <v>5079</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>0.03467792645096779</v>
+        <v>0.08006420731544495</v>
       </c>
       <c r="E362" t="n">
-        <v>5453</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>0.2903909087181091</v>
+        <v>0.00265098107047379</v>
       </c>
       <c r="E363" t="n">
-        <v>1</v>
+        <v>240665</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>0.02607595361769199</v>
+        <v>0.02582662180066109</v>
       </c>
       <c r="E364" t="n">
-        <v>12542</v>
+        <v>35490</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>0.02359221316874027</v>
+        <v>0.04450785741209984</v>
       </c>
       <c r="E365" t="n">
-        <v>16427</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>0.07225465774536133</v>
+        <v>0.1061727851629257</v>
       </c>
       <c r="E366" t="n">
-        <v>370</v>
+        <v>309</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>0.02173994295299053</v>
+        <v>0.0840117558836937</v>
       </c>
       <c r="E367" t="n">
-        <v>20316</v>
+        <v>954</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>0.03193865716457367</v>
+        <v>0.1969029903411865</v>
       </c>
       <c r="E368" t="n">
-        <v>7076</v>
+        <v>21</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>0.05450712889432907</v>
+        <v>0.03210416063666344</v>
       </c>
       <c r="E369" t="n">
-        <v>1190</v>
+        <v>22609</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>0.01817836426198483</v>
+        <v>0.1254629343748093</v>
       </c>
       <c r="E370" t="n">
-        <v>30445</v>
+        <v>149</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>0.01776437647640705</v>
+        <v>0.03077389858663082</v>
       </c>
       <c r="E371" t="n">
-        <v>31947</v>
+        <v>24715</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>0.1787119209766388</v>
+        <v>0.02613345719873905</v>
       </c>
       <c r="E372" t="n">
-        <v>7</v>
+        <v>34721</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>0.1152693033218384</v>
+        <v>0.04142003133893013</v>
       </c>
       <c r="E373" t="n">
-        <v>42</v>
+        <v>11974</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>0.09232816100120544</v>
+        <v>0.02944890409708023</v>
       </c>
       <c r="E374" t="n">
-        <v>113</v>
+        <v>27111</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>0.007998424582183361</v>
+        <v>0.1020317599177361</v>
       </c>
       <c r="E375" t="n">
-        <v>108945</v>
+        <v>392</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>0.05714685469865799</v>
+        <v>0.1787998974323273</v>
       </c>
       <c r="E376" t="n">
-        <v>975</v>
+        <v>41</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>0.03544637560844421</v>
+        <v>0.05593465641140938</v>
       </c>
       <c r="E377" t="n">
-        <v>5089</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>0.03743453696370125</v>
+        <v>0.1278187930583954</v>
       </c>
       <c r="E378" t="n">
-        <v>4243</v>
+        <v>131</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>0.08482225239276886</v>
+        <v>0.1724019199609756</v>
       </c>
       <c r="E379" t="n">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>0.03342921286821365</v>
+        <v>0.0607963465154171</v>
       </c>
       <c r="E380" t="n">
-        <v>6175</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>0.1193800792098045</v>
+        <v>0.008911124430596828</v>
       </c>
       <c r="E381" t="n">
-        <v>33</v>
+        <v>141838</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>0.01770997047424316</v>
+        <v>0.1272875964641571</v>
       </c>
       <c r="E382" t="n">
-        <v>32153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>0.1336333751678467</v>
+        <v>0.03766664490103722</v>
       </c>
       <c r="E383" t="n">
-        <v>17</v>
+        <v>15359</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>0.2087931334972382</v>
+        <v>0.04091514647006989</v>
       </c>
       <c r="E384" t="n">
-        <v>3</v>
+        <v>12374</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>0.07538855075836182</v>
+        <v>0.0349375419318676</v>
       </c>
       <c r="E385" t="n">
-        <v>309</v>
+        <v>18570</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>0.01871998608112335</v>
+        <v>0.08710159361362457</v>
       </c>
       <c r="E386" t="n">
-        <v>28677</v>
+        <v>819</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>0.02002152614295483</v>
+        <v>0.09532152116298676</v>
       </c>
       <c r="E387" t="n">
-        <v>24729</v>
+        <v>519</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>0.01313263550400734</v>
+        <v>0.09330641478300095</v>
       </c>
       <c r="E388" t="n">
-        <v>56079</v>
+        <v>577</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>0.02406787127256393</v>
+        <v>0.07201673835515976</v>
       </c>
       <c r="E389" t="n">
-        <v>15630</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>0.01037677936255932</v>
+        <v>0.016739247366786</v>
       </c>
       <c r="E390" t="n">
-        <v>79480</v>
+        <v>72096</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>0.0394725501537323</v>
+        <v>0.02227173000574112</v>
       </c>
       <c r="E391" t="n">
-        <v>3545</v>
+        <v>46578</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>0.03588303923606873</v>
+        <v>0.1052337288856506</v>
       </c>
       <c r="E392" t="n">
-        <v>4910</v>
+        <v>328</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>0.01226182840764523</v>
+        <v>0.01698781922459602</v>
       </c>
       <c r="E393" t="n">
-        <v>62432</v>
+        <v>70613</v>
       </c>
     </row>
   </sheetData>
@@ -8290,13 +8290,13 @@
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.14</v>
       </c>
       <c r="J2" t="n">
         <v>0.11</v>
@@ -8305,7 +8305,7 @@
         <v>0.038</v>
       </c>
       <c r="L2" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8325,13 +8325,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G3" t="n">
         <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.1</v>
@@ -8343,7 +8343,7 @@
         <v>0.024</v>
       </c>
       <c r="L3" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8363,16 +8363,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="I4" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="J4" t="n">
         <v>0.18</v>
@@ -8404,13 +8404,13 @@
         <v>0.0263</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0526</v>
+        <v>0.0789</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1842</v>
+        <v>0.2105</v>
       </c>
       <c r="J5" t="n">
         <v>0.2895</v>
@@ -8419,7 +8419,7 @@
         <v>0.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6579</v>
+        <v>0.6842</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8439,13 +8439,13 @@
         <v>0.0526</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G6" t="n">
         <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1579</v>
+        <v>0.2632</v>
       </c>
       <c r="I6" t="n">
         <v>0.2632</v>
@@ -8457,7 +8457,7 @@
         <v>0.6316000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7368</v>
+        <v>0.6842</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8477,16 +8477,16 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0351</v>
+        <v>0.0526</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0702</v>
+        <v>0.0877</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1228</v>
+        <v>0.193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2105</v>
+        <v>0.2281</v>
       </c>
       <c r="J7" t="n">
         <v>0.3158</v>
@@ -8518,13 +8518,13 @@
         <v>0.0465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0833</v>
+        <v>0.1249</v>
       </c>
       <c r="H8" t="n">
-        <v>0.127</v>
+        <v>0.1905</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1591</v>
+        <v>0.1818</v>
       </c>
       <c r="J8" t="n">
         <v>0.1594</v>
@@ -8533,7 +8533,7 @@
         <v>0.0706</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0482</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8553,13 +8553,13 @@
         <v>0.0999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0833</v>
+        <v>0.1667</v>
       </c>
       <c r="G9" t="n">
         <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1364</v>
+        <v>0.2273</v>
       </c>
       <c r="I9" t="n">
         <v>0.1449</v>
@@ -8571,7 +8571,7 @@
         <v>0.0462</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0275</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8591,16 +8591,16 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0645</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1194</v>
+        <v>0.1492</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1707</v>
+        <v>0.2683</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2243</v>
+        <v>0.243</v>
       </c>
       <c r="J10" t="n">
         <v>0.2293</v>
@@ -8626,28 +8626,28 @@
         <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="K11" t="n">
-        <v>0.024</v>
+        <v>0.042</v>
       </c>
       <c r="L11" t="n">
-        <v>0.017</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8673,19 +8673,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.02</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.013</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8702,28 +8702,28 @@
         <v>387</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="K13" t="n">
-        <v>0.044</v>
+        <v>0.08</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8740,28 +8740,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04</v>
+        <v>0.48</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.84</v>
       </c>
       <c r="L14" t="n">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8787,19 +8787,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.0882</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0588</v>
+        <v>0.2059</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2941</v>
+        <v>0.5588</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3824</v>
+        <v>0.5881999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8816,28 +8816,28 @@
         <v>387</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.0339</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0678</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.1356</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0169</v>
+        <v>0.2542</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1186</v>
+        <v>0.3898</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3729</v>
+        <v>0.678</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5085</v>
+        <v>0.7119</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8854,28 +8854,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.2286</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0267</v>
+        <v>0.32</v>
       </c>
       <c r="J17" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.08</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.0457</v>
-      </c>
       <c r="L17" t="n">
-        <v>0.0332</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8901,19 +8901,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0678</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0298</v>
+        <v>0.1045</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0375</v>
+        <v>0.0712</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0251</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8930,28 +8930,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1159</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1905</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0183</v>
+        <v>0.2752</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.2893</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.1431</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0567</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8968,16 +8968,16 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I20" t="n">
         <v>0.14</v>
@@ -8986,7 +8986,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="L20" t="n">
         <v>0.01</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.12</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.08</v>
-      </c>
       <c r="K21" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="L21" t="n">
         <v>0.023</v>
@@ -9044,25 +9044,25 @@
         <v>387</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="I22" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="J22" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="n">
-        <v>0.052</v>
+        <v>0.06</v>
       </c>
       <c r="L22" t="n">
         <v>0.033</v>
@@ -9082,16 +9082,16 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I23" t="n">
         <v>0.7</v>
@@ -9100,7 +9100,7 @@
         <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -9123,22 +9123,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0357</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0357</v>
+        <v>0.1429</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1071</v>
+        <v>0.1429</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2857</v>
+        <v>0.4286</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6071</v>
+        <v>0.7143</v>
       </c>
       <c r="L24" t="n">
         <v>0.8214</v>
@@ -9158,25 +9158,25 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0789</v>
+        <v>0.1842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2105</v>
+        <v>0.2895</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2895</v>
+        <v>0.3684</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3947</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6842</v>
+        <v>0.7895</v>
       </c>
       <c r="L25" t="n">
         <v>0.8683999999999999</v>
@@ -9196,16 +9196,16 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1333</v>
+        <v>0.2667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2857</v>
+        <v>0.4</v>
       </c>
       <c r="I26" t="n">
         <v>0.2333</v>
@@ -9214,7 +9214,7 @@
         <v>0.1273</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0353</v>
+        <v>0.0392</v>
       </c>
       <c r="L26" t="n">
         <v>0.0198</v>
@@ -9237,22 +9237,22 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0526</v>
+        <v>0.2106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1132</v>
+        <v>0.151</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1026</v>
+        <v>0.1795</v>
       </c>
       <c r="J27" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0644</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="L27" t="n">
         <v>0.0447</v>
@@ -9272,25 +9272,25 @@
         <v>387</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.093</v>
+        <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1249</v>
+        <v>0.2917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2539</v>
+        <v>0.3492</v>
       </c>
       <c r="I28" t="n">
-        <v>0.25</v>
+        <v>0.3182</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2174</v>
+        <v>0.2754</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.1115</v>
       </c>
       <c r="L28" t="n">
         <v>0.0636</v>
@@ -9313,25 +9313,25 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.04</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>0.02</v>
       </c>
-      <c r="K29" t="n">
-        <v>0.008</v>
-      </c>
       <c r="L29" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -9348,28 +9348,28 @@
         <v>387</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.1</v>
       </c>
       <c r="H30" t="n">
         <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="J30" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="K30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.018</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9386,28 +9386,28 @@
         <v>387</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I31" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="K31" t="n">
-        <v>0.026</v>
+        <v>0.05</v>
       </c>
       <c r="L31" t="n">
-        <v>0.021</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9427,25 +9427,25 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1667</v>
+        <v>0.3333</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3333</v>
+        <v>0.8333</v>
       </c>
       <c r="L32" t="n">
-        <v>0.75</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -9462,28 +9462,28 @@
         <v>387</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0303</v>
+        <v>0.0606</v>
       </c>
       <c r="H33" t="n">
         <v>0.09089999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1212</v>
+        <v>0.1818</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1212</v>
+        <v>0.2727</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2727</v>
+        <v>0.4545</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3636</v>
+        <v>0.5455</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9500,28 +9500,28 @@
         <v>387</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0222</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0222</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0222</v>
+        <v>0.0667</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0667</v>
+        <v>0.1333</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1333</v>
+        <v>0.2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1333</v>
+        <v>0.2889</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2889</v>
+        <v>0.5556</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4667</v>
+        <v>0.6444</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9541,25 +9541,25 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.1622</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0645</v>
+        <v>0.0968</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0357</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0156</v>
+        <v>0.0391</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0178</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9576,28 +9576,28 @@
         <v>387</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0465</v>
+        <v>0.093</v>
       </c>
       <c r="H36" t="n">
         <v>0.1034</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0964</v>
+        <v>0.1446</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0601</v>
+        <v>0.1353</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0338</v>
+        <v>0.0563</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0232</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9614,28 +9614,28 @@
         <v>387</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0434</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0.04</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0363</v>
+        <v>0.1091</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0857</v>
+        <v>0.1714</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1263</v>
+        <v>0.1895</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0828</v>
+        <v>0.1793</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0477</v>
+        <v>0.0917</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0402</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9658,19 +9658,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I38" t="n">
         <v>0.08</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>0.04</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.02</v>
-      </c>
       <c r="K38" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="L38" t="n">
         <v>0.006</v>
@@ -9699,19 +9699,19 @@
         <v>0.1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J39" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.008</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9734,22 +9734,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K40" t="n">
         <v>0.018</v>
       </c>
       <c r="L40" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9772,19 +9772,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L41" t="n">
         <v>0.6</v>
@@ -9813,19 +9813,19 @@
         <v>0.0526</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2105</v>
+        <v>0.2632</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3158</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9848,22 +9848,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1034</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1034</v>
+        <v>0.1724</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1379</v>
+        <v>0.2414</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1379</v>
+        <v>0.2414</v>
       </c>
       <c r="K43" t="n">
         <v>0.3103</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4138</v>
+        <v>0.4828</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9886,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1143</v>
+        <v>0.1714</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0667</v>
+        <v>0.1333</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0364</v>
+        <v>0.0727</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0196</v>
+        <v>0.0157</v>
       </c>
       <c r="L44" t="n">
         <v>0.0119</v>
@@ -9927,19 +9927,19 @@
         <v>0.0689</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0454</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.058</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0336</v>
+        <v>0.0504</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0154</v>
+        <v>0.0193</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0118</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1538</v>
+        <v>0.1026</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1111</v>
+        <v>0.1852</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1013</v>
+        <v>0.1772</v>
       </c>
       <c r="J46" t="n">
-        <v>0.062</v>
+        <v>0.1085</v>
       </c>
       <c r="K46" t="n">
         <v>0.034</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0233</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9994,28 +9994,28 @@
         <v>387</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K47" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="L47" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J48" t="n">
         <v>0.02</v>
       </c>
       <c r="K48" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="L48" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="K49" t="n">
-        <v>0.02</v>
+        <v>0.038</v>
       </c>
       <c r="L49" t="n">
-        <v>0.012</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10108,28 +10108,28 @@
         <v>387</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2857</v>
+        <v>0.7143</v>
       </c>
       <c r="L50" t="n">
-        <v>0.4286</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10149,25 +10149,25 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="J51" t="n">
         <v>0.1176</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3529</v>
+        <v>0.5294</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3529</v>
+        <v>0.6471</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.0968</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.0968</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.0968</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.0968</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0645</v>
+        <v>0.129</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3226</v>
+        <v>0.6129</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3871</v>
+        <v>0.7419</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10222,28 +10222,28 @@
         <v>387</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.1052</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.0351</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0156</v>
+        <v>0.0389</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0118</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10263,25 +10263,25 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.1481</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.0597</v>
       </c>
       <c r="J54" t="n">
         <v>0.0342</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0232</v>
+        <v>0.0348</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0118</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.1464</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.1072</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.0741</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0305</v>
+        <v>0.0611</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0377</v>
+        <v>0.0716</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0233</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10342,16 +10342,16 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I56" t="n">
         <v>0.06</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K56" t="n">
         <v>0.01</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>0.036</v>
+        <v>0.014</v>
       </c>
       <c r="L57" t="n">
-        <v>0.019</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10412,28 +10412,28 @@
         <v>387</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I58" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="J58" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="K58" t="n">
-        <v>0.046</v>
+        <v>0.024</v>
       </c>
       <c r="L58" t="n">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10456,16 +10456,16 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I59" t="n">
         <v>0.6</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.35</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.65</v>
-      </c>
       <c r="K60" t="n">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
       <c r="L60" t="n">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10526,28 +10526,28 @@
         <v>387</v>
       </c>
       <c r="E61" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.16</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.28</v>
-      </c>
       <c r="H61" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.48</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.92</v>
-      </c>
       <c r="L61" t="n">
-        <v>0.96</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10570,16 +10570,16 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.2667</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0667</v>
+        <v>0.2</v>
       </c>
       <c r="I62" t="n">
         <v>0.1091</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0762</v>
+        <v>0.0571</v>
       </c>
       <c r="K62" t="n">
         <v>0.0198</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09520000000000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4667</v>
+        <v>0.1333</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4889</v>
+        <v>0.1333</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3714</v>
+        <v>0.1429</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2167</v>
+        <v>0.1167</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0692</v>
+        <v>0.0269</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0373</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10640,28 +10640,28 @@
         <v>387</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2667</v>
+        <v>0.1333</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.2286</v>
       </c>
       <c r="H64" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4267</v>
+        <v>0.2133</v>
       </c>
       <c r="J64" t="n">
-        <v>0.272</v>
+        <v>0.16</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0876</v>
+        <v>0.0457</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0468</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
         <v>0.02</v>
@@ -10696,10 +10696,10 @@
         <v>0.01</v>
       </c>
       <c r="K65" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="L65" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,22 +10716,22 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="J66" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="K66" t="n">
         <v>0.024</v>
@@ -10754,28 +10754,28 @@
         <v>387</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I67" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="J67" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="L67" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I68" t="n">
         <v>0.125</v>
@@ -10810,10 +10810,10 @@
         <v>0.125</v>
       </c>
       <c r="K68" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="L68" t="n">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,22 +10830,22 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0238</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.0476</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>0.119</v>
       </c>
-      <c r="H69" t="n">
+      <c r="J69" t="n">
         <v>0.1429</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.1905</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.1905</v>
       </c>
       <c r="K69" t="n">
         <v>0.2857</v>
@@ -10868,28 +10868,28 @@
         <v>387</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I70" t="n">
         <v>0.12</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.18</v>
-      </c>
       <c r="J70" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="K70" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="L70" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="I71" t="n">
         <v>0.0345</v>
@@ -10924,10 +10924,10 @@
         <v>0.0185</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0039</v>
+        <v>0.0118</v>
       </c>
       <c r="L71" t="n">
-        <v>0.002</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,22 +10944,22 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0465</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0851</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1922</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1791</v>
+        <v>0.0597</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1739</v>
+        <v>0.1087</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1127</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="K72" t="n">
         <v>0.0443</v>
@@ -10982,28 +10982,28 @@
         <v>387</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0392</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0727</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="J73" t="n">
-        <v>0.12</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0473</v>
+        <v>0.0545</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0305</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11032,13 +11032,13 @@
         <v>0.12</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J74" t="n">
         <v>0.04</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="L74" t="n">
         <v>0.007</v>
@@ -11070,10 +11070,10 @@
         <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J75" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K75" t="n">
         <v>0.022</v>
@@ -11108,13 +11108,13 @@
         <v>0.24</v>
       </c>
       <c r="I76" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="J76" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K76" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="L76" t="n">
         <v>0.02</v>
@@ -11146,13 +11146,13 @@
         <v>0.4286</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4286</v>
+        <v>0.5714</v>
       </c>
       <c r="J77" t="n">
         <v>0.5714</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7143</v>
+        <v>0.8571</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
@@ -11184,10 +11184,10 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I78" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.1818</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.2121</v>
       </c>
       <c r="K78" t="n">
         <v>0.3333</v>
@@ -11222,13 +11222,13 @@
         <v>0.15</v>
       </c>
       <c r="I79" t="n">
-        <v>0.225</v>
+        <v>0.2</v>
       </c>
       <c r="J79" t="n">
-        <v>0.275</v>
+        <v>0.25</v>
       </c>
       <c r="K79" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="L79" t="n">
         <v>0.5</v>
@@ -11260,13 +11260,13 @@
         <v>0.1875</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1053</v>
+        <v>0.1404</v>
       </c>
       <c r="J80" t="n">
         <v>0.07480000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0197</v>
+        <v>0.0237</v>
       </c>
       <c r="L80" t="n">
         <v>0.0139</v>
@@ -11298,10 +11298,10 @@
         <v>0.1034</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1446</v>
+        <v>0.0964</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1053</v>
+        <v>0.0902</v>
       </c>
       <c r="K81" t="n">
         <v>0.0413</v>
@@ -11336,13 +11336,13 @@
         <v>0.1846</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2</v>
+        <v>0.1778</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1571</v>
+        <v>0.1429</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0593</v>
+        <v>0.063</v>
       </c>
       <c r="L82" t="n">
         <v>0.0385</v>
@@ -11368,7 +11368,7 @@
         <v>0.2</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H83" t="n">
         <v>0.08</v>
@@ -11403,19 +11403,19 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="I84" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K84" t="n">
         <v>0.028</v>
@@ -11441,19 +11441,19 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="I85" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="J85" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="K85" t="n">
         <v>0.032</v>
@@ -11482,7 +11482,7 @@
         <v>0.5</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -11517,19 +11517,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4375</v>
+        <v>0.625</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="J87" t="n">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="K87" t="n">
         <v>0.875</v>
@@ -11555,19 +11555,19 @@
         <v>0.0556</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2778</v>
+        <v>0.2222</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3333</v>
+        <v>0.4444</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="I88" t="n">
-        <v>0.6111</v>
+        <v>0.6667</v>
       </c>
       <c r="J88" t="n">
-        <v>0.6667</v>
+        <v>0.7222</v>
       </c>
       <c r="K88" t="n">
         <v>0.8889</v>
@@ -11596,7 +11596,7 @@
         <v>0.2857</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1667</v>
+        <v>0.3333</v>
       </c>
       <c r="H89" t="n">
         <v>0.1481</v>
@@ -11631,19 +11631,19 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.381</v>
+        <v>0.2857</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3846</v>
+        <v>0.4615</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3415</v>
+        <v>0.4878</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2727</v>
+        <v>0.303</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1724</v>
+        <v>0.1897</v>
       </c>
       <c r="K90" t="n">
         <v>0.0543</v>
@@ -11669,19 +11669,19 @@
         <v>0.1053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4348</v>
+        <v>0.3478</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4285</v>
+        <v>0.5714</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4186</v>
+        <v>0.5582</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3235</v>
+        <v>0.3529</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2034</v>
+        <v>0.2203</v>
       </c>
       <c r="K91" t="n">
         <v>0.0618</v>
@@ -11764,25 +11764,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02580694159641528</v>
+        <v>0.04746031746031745</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03713359340595569</v>
+        <v>0.06082994843430414</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0505911700411886</v>
+        <v>0.07376000083804075</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06094970093807436</v>
+        <v>0.08597491180963579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06572110338543795</v>
+        <v>0.09212086201854773</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11802,25 +11802,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07769423558897243</v>
+        <v>0.108036074841836</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0903333602824265</v>
+        <v>0.108036074841836</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09805212016640956</v>
+        <v>0.1177058911258488</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1072331395707722</v>
+        <v>0.1294920452917182</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1090726539685811</v>
+        <v>0.1305544839971775</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02456140350877193</v>
+        <v>0.03976608187134503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04113060428849902</v>
+        <v>0.06120857699805068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06247183615604668</v>
+        <v>0.1092894355809957</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08431348162582353</v>
+        <v>0.1241513028929537</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1050418798403477</v>
+        <v>0.1458104788553207</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1237771795757126</v>
+        <v>0.1686481960667514</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1304087859810867</v>
+        <v>0.1759564306030152</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11875,28 +11875,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.135959595959596</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009302325581395348</v>
+        <v>0.1913333541315697</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008329583207490185</v>
+        <v>0.2231266945747502</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01620476948343325</v>
+        <v>0.2433988820563862</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02090678114327135</v>
+        <v>0.2444366179054428</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11922,19 +11922,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.00522875816993464</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.007280741754065967</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00165493547846489</v>
+        <v>0.01529323644196985</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005792114112933948</v>
+        <v>0.03436176119331336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007190671802770228</v>
+        <v>0.0355061878355656</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11951,28 +11951,28 @@
         <v>387</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04143126177024482</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.07305255949323747</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003941663381947182</v>
+        <v>0.1074253902007778</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007019379637136831</v>
+        <v>0.1417992271077704</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01793334939724264</v>
+        <v>0.18276852738596</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02321877742883003</v>
+        <v>0.1849599653326002</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.025</v>
+        <v>0.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1187770562770563</v>
+        <v>0.312469696969697</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1538061260444981</v>
+        <v>0.312469696969697</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1538061260444981</v>
+        <v>0.312469696969697</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1642061260444981</v>
+        <v>0.3257856108513831</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1657859048754618</v>
+        <v>0.3257856108513831</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.03214285714285715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.06173469387755103</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02891156462585034</v>
+        <v>0.06173469387755103</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03201715468796214</v>
+        <v>0.08014431347251545</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04608877534022104</v>
+        <v>0.1046773089449519</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06129572680949475</v>
+        <v>0.1279037430874006</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06757465033408058</v>
+        <v>0.1316279560951323</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12065,28 +12065,28 @@
         <v>387</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.09342105263157895</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03947368421052631</v>
+        <v>0.1503759398496241</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08230804283435862</v>
+        <v>0.2088448393711552</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1021222158427137</v>
+        <v>0.2386120555437706</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1238189958988009</v>
+        <v>0.269551446768488</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1487396038970623</v>
+        <v>0.3052046986595065</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1567670245793749</v>
+        <v>0.3092041999933821</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.04246031746031746</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007041231126596981</v>
+        <v>0.04246031746031746</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007041231126596981</v>
+        <v>0.0472912353347136</v>
       </c>
       <c r="K11" t="n">
-        <v>0.009889922622779296</v>
+        <v>0.06179910283676714</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01373163900541295</v>
+        <v>0.06353521394787826</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12141,28 +12141,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.009848484848484849</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03943850267379679</v>
+        <v>0.01519607843137255</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04207354878710377</v>
+        <v>0.03081734895460386</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04207354878710377</v>
+        <v>0.04021577117478422</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04741245443952173</v>
+        <v>0.04822167913781306</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04881648643677952</v>
+        <v>0.05020372174190169</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12179,28 +12179,28 @@
         <v>387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02892156862745098</v>
+        <v>0.03695922813569872</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03770474962696283</v>
+        <v>0.05540884919969886</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03770474962696283</v>
+        <v>0.06899650616003569</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04541643867475408</v>
+        <v>0.08824810561285903</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0496441535839736</v>
+        <v>0.09174146969353948</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12223,22 +12223,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03666666666666667</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03666666666666667</v>
+        <v>0.04636904761904762</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03666666666666667</v>
+        <v>0.05567137320044298</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03666666666666667</v>
+        <v>0.05567137320044298</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04087806155003017</v>
+        <v>0.05567137320044298</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04148905951337029</v>
+        <v>0.05742308118604271</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12261,22 +12261,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005847953216374269</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005847953216374269</v>
+        <v>0.01686909581646424</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009037745879851143</v>
+        <v>0.02072018695895461</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009037745879851143</v>
+        <v>0.02072018695895461</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01069626079944404</v>
+        <v>0.02314418588757387</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01144756086066274</v>
+        <v>0.02456157994410564</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12299,22 +12299,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02375478927203065</v>
+        <v>0.01559934318555008</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02375478927203065</v>
+        <v>0.04352816723506379</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02793451758969</v>
+        <v>0.05418789692778974</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02793451758969</v>
+        <v>0.05418789692778974</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03260336420730321</v>
+        <v>0.05727642899763268</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03396626184801561</v>
+        <v>0.06017046897839344</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12331,28 +12331,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.07291666666666666</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003157525512938907</v>
+        <v>0.08651646146689547</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004213251101703984</v>
+        <v>0.08880374467483884</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002068269168132369</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01137273687408812</v>
+        <v>0.06938903059144839</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01137273687408812</v>
+        <v>0.07100517027563828</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001134212124459686</v>
+        <v>0.0900537634408602</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01151150937393403</v>
+        <v>0.1126222781549869</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01251692981029606</v>
+        <v>0.1163624036396228</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12451,22 +12451,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009523809523809523</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03710458178543284</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04791539259624365</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05218889686974792</v>
+        <v>0.1297701442440465</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05218889686974792</v>
+        <v>0.1297701442440465</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12483,28 +12483,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.045</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3282738095238095</v>
+        <v>0.045</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4358432539682539</v>
+        <v>0.05653846153846154</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4690376984126984</v>
+        <v>0.0718065268065268</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4690376984126984</v>
+        <v>0.08319327565090276</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4975961230597239</v>
+        <v>0.08319327565090276</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4991136949447079</v>
+        <v>0.08443438237027036</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12521,28 +12521,28 @@
         <v>387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.16</v>
+        <v>0.036</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2626190476190476</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3714451659451659</v>
+        <v>0.1071282051282051</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4351547798143542</v>
+        <v>0.1275944055944056</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4443439690035434</v>
+        <v>0.1409195211568093</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4769434403593579</v>
+        <v>0.14426258405911</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4784769866852364</v>
+        <v>0.1458457197639848</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12568,19 +12568,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.009071768951483032</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.01252430375377788</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03968253968253968</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07709750566893424</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08550086701347206</v>
+        <v>0.003755668934240363</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09508651945626735</v>
+        <v>0.01125698001624683</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09508651945626735</v>
+        <v>0.01363793239719921</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09997891526201159</v>
+        <v>0.02078043296121485</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1014363553432031</v>
+        <v>0.02209823336177906</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12635,28 +12635,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07182072829131653</v>
+        <v>0.006460084033613445</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08387267634326458</v>
+        <v>0.01441526287618201</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08387267634326458</v>
+        <v>0.01674859620951534</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0883936658800963</v>
+        <v>0.02503452890833649</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08970634713151229</v>
+        <v>0.02850746855458549</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12685,16 +12685,16 @@
         <v>0.2738095238095238</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2738095238095238</v>
+        <v>0.2911255411255411</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2795815295815295</v>
+        <v>0.2911255411255411</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2844406160732691</v>
+        <v>0.3004240219940361</v>
       </c>
       <c r="L26" t="n">
-        <v>0.287140937688752</v>
+        <v>0.3019323176199787</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12717,22 +12717,22 @@
         <v>0.04242424242424242</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05151515151515151</v>
+        <v>0.05541125541125541</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05151515151515151</v>
+        <v>0.05541125541125541</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06506074570590699</v>
+        <v>0.05932132383745287</v>
       </c>
       <c r="J27" t="n">
-        <v>0.06884862449378579</v>
+        <v>0.06462742124881345</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07334492653275249</v>
+        <v>0.07186809434791888</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07427444996643973</v>
+        <v>0.07307978801776685</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12755,22 +12755,22 @@
         <v>0.125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.14</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1580587557603687</v>
+        <v>0.1581343387795001</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1653008192524321</v>
+        <v>0.1657507355406337</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1730960278122555</v>
+        <v>0.1790466456814812</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1755749508663479</v>
+        <v>0.1812780657051044</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12793,22 +12793,22 @@
         <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571428</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12828,25 +12828,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1697916666666667</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2045138888888889</v>
+        <v>0.2034722222222222</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2541933760683761</v>
+        <v>0.3227277369281046</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2914470706496569</v>
+        <v>0.3227277369281046</v>
       </c>
       <c r="J30" t="n">
-        <v>0.298887546840133</v>
+        <v>0.333640435340803</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3239748380645116</v>
+        <v>0.347349098189718</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3256549455913934</v>
+        <v>0.3485541110431884</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12866,25 +12866,25 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.3662257495590829</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4002849002849003</v>
+        <v>0.4974394387384583</v>
       </c>
       <c r="I31" t="n">
-        <v>0.441198967061036</v>
+        <v>0.4974394387384583</v>
       </c>
       <c r="J31" t="n">
-        <v>0.449135474997544</v>
+        <v>0.5089032835356364</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4750763369521771</v>
+        <v>0.5229980096891711</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4767688897199986</v>
+        <v>0.5242119485637784</v>
       </c>
     </row>
   </sheetData>
